--- a/Excel/config.xlsx
+++ b/Excel/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Administrator\Desktop\西游搞起\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7B4620-284E-4E30-B7C3-5E93A5C75463}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E76081E-DDD1-4C8E-95A4-1B7C4F694C2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -108,8 +108,72 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{23F1DB2A-7B37-4AB9-85F3-4BC373AFFEB1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.普攻
+2.技能
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{D79A7BD8-6B08-4802-B5C7-630BF6F7AC4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每个技能只要有任何一个效果不同就是一种类型。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +427,106 @@
   </si>
   <si>
     <t>0.8,1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kapai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kapai3</t>
+  </si>
+  <si>
+    <t>kapai4</t>
+  </si>
+  <si>
+    <t>kapai5</t>
+  </si>
+  <si>
+    <t>kapai6</t>
+  </si>
+  <si>
+    <t>kapai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒击大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉耙横扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自身周围距离1的所有敌方单位造成120%+10伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自身周围距离2以内的友方单位恢复攻击80%+200血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>念经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对随机一个友方单位念经，使其鬼畜增加100%攻速，持续3S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙枪连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对正在攻击的目标及目标周围距离1的敌方造成200%+20伤害并眩晕2S.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前正在攻击的单位释放3段攻击，每次攻击造成120%+8伤害，并在完成连击后使目标命中降低500，持续5S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤束缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使自身周围距离2的所有敌方单位收到束缚，每秒受到20%+60伤害并沉默，无法使用技能，持续5S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70F78D6-B60C-4187-AD7F-9085CAEC5977}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,7 +1011,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -855,7 +1019,7 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +1041,11 @@
       <c r="G1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -900,8 +1067,11 @@
       <c r="G2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -924,8 +1094,11 @@
       <c r="G3">
         <v>1001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -948,8 +1121,11 @@
       <c r="G4">
         <v>1002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -972,8 +1148,11 @@
       <c r="G5">
         <v>1003</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -996,8 +1175,11 @@
       <c r="G6">
         <v>1004</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1020,8 +1202,11 @@
       <c r="G7">
         <v>1005</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1043,6 +1228,9 @@
       </c>
       <c r="G8">
         <v>1006</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="14:24" x14ac:dyDescent="0.2">
@@ -1190,186 +1378,444 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3F5A47-F0D7-45FE-B912-09D6EB4D39B6}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3F5A47-F0D7-45FE-B912-09D6EB4D39B6}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="101.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="str">
-        <f>B4&amp;"造成100%攻击力伤害"</f>
+      <c r="E4" t="str">
+        <f>D4&amp;"造成100%攻击力伤害"</f>
         <v>猪八戒普攻造成100%攻击力伤害</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5:C8" si="0">B5&amp;"造成100%攻击力伤害"</f>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E8" si="0">D5&amp;"造成100%攻击力伤害"</f>
         <v>沙悟净普攻造成100%攻击力伤害</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>唐僧普攻造成100%攻击力伤害</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1005</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>白龙马普攻造成100%攻击力伤害</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1006</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>哪吒普攻造成100%攻击力伤害</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1011</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1021</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>1.2</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1031</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1041</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1051</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>1.2</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1061</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>